--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_23.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1604490.09552147</v>
+        <v>1604490.095521471</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>119063.5959511118</v>
+        <v>84935.16005108427</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7282096.494983041</v>
+        <v>7282096.494983049</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>210.7317760590118</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>125.2130622357655</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,7 +716,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>338.0471616706942</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,7 +902,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>105.0839683962661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>51.30079766335505</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>58.80045981415044</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>186.9734578772969</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>221.4211357805156</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
     </row>
     <row r="11">
@@ -1376,13 +1376,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>323.9918595228949</v>
+        <v>179.9547861304553</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>29.22883044751052</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>269.5134569480831</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1661,16 +1661,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>10.99760060955778</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>18.08991703025477</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>218.3734398702018</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>323.9918595228949</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1907,10 +1907,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2056,16 +2056,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,22 +2084,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>256.9429487539112</v>
       </c>
       <c r="G20" t="n">
-        <v>323.9918595228949</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>26.26583888007699</v>
       </c>
     </row>
     <row r="23">
@@ -2315,10 +2315,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>321.3896833694397</v>
       </c>
       <c r="X23" t="n">
-        <v>339.0399185806811</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,19 +2530,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2561,16 +2561,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>269.5134569480836</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>105.4570933694545</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2609,13 +2609,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>70.03418953492978</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>362.2460332992872</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>269.5134569480836</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,28 +2837,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,10 +2968,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3001,16 +3001,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>162.0255331764648</v>
       </c>
       <c r="U31" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>53.12319220030986</v>
       </c>
     </row>
     <row r="33">
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>266.6910260201686</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3275,10 +3275,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>269.5134569480831</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,22 +3311,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>305.2280249473461</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3363,7 +3363,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>22.11041309544153</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>303.5313813159054</v>
       </c>
       <c r="C38" t="n">
-        <v>221.0021786982965</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>124.45607405683</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.0555388225932</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3703,10 +3703,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>292.138059574363</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>297.5642569908815</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3834,10 +3834,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>33.84234274505248</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3940,10 +3940,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,16 +3952,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>70.40870439282132</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3977,19 +3977,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>158.9897392454101</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>269.513456948084</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,22 +4022,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4071,10 +4071,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>156.1271626621474</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4186,16 +4186,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1095.753074569373</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C2" t="n">
-        <v>1095.753074569373</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D2" t="n">
-        <v>1095.753074569373</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>1095.753074569373</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>684.7671697797653</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>266.8033616779521</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548715</v>
+        <v>2515.642560906528</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2297.007893878591</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.723949158869</v>
+        <v>2043.246108516683</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2043.246108516683</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545184</v>
+        <v>1690.477453246569</v>
       </c>
       <c r="X2" t="n">
-        <v>1485.892406545184</v>
+        <v>1690.477453246569</v>
       </c>
       <c r="Y2" t="n">
-        <v>1095.753074569373</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
         <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>709.5665374816297</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T4" t="n">
-        <v>709.5665374816297</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U4" t="n">
-        <v>709.5665374816297</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2149.375138862102</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
         <v>1036.358670716696</v>
@@ -4562,7 +4562,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548715</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548715</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548715</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548715</v>
+        <v>2105.048665729205</v>
       </c>
       <c r="Y5" t="n">
-        <v>2535.974978926224</v>
+        <v>2105.048665729205</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4756,19 +4756,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036444</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036444</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1036.358670716696</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.723949158869</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2058.446168171012</v>
       </c>
       <c r="W8" t="n">
-        <v>1485.892406545184</v>
+        <v>1705.677512900898</v>
       </c>
       <c r="X8" t="n">
-        <v>1485.892406545184</v>
+        <v>1332.211754639818</v>
       </c>
       <c r="Y8" t="n">
-        <v>1095.753074569373</v>
+        <v>942.0724226640064</v>
       </c>
     </row>
     <row r="9">
@@ -4878,10 +4878,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
         <v>266.2060027641994</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>323.2572191628418</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>323.2572191628418</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V10" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W10" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X10" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1546.944160717209</v>
+        <v>604.6780100036603</v>
       </c>
       <c r="C11" t="n">
-        <v>1177.981643776797</v>
+        <v>235.7154930632486</v>
       </c>
       <c r="D11" t="n">
-        <v>1177.981643776797</v>
+        <v>235.7154930632486</v>
       </c>
       <c r="E11" t="n">
-        <v>792.1933911785527</v>
+        <v>235.7154930632486</v>
       </c>
       <c r="F11" t="n">
-        <v>381.2074863889451</v>
+        <v>235.7154930632486</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5066,25 +5066,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X11" t="n">
-        <v>2323.683332757142</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y11" t="n">
-        <v>1933.54400078133</v>
+        <v>991.2778500677821</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2627.754532504894</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018223</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5233,16 +5233,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1491.915471247702</v>
+        <v>1964.838184214438</v>
       </c>
       <c r="C14" t="n">
-        <v>1122.95295430729</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D14" t="n">
-        <v>1122.95295430729</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E14" t="n">
-        <v>737.1647017090459</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F14" t="n">
-        <v>326.1787969194383</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5300,28 +5300,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2642.120401548715</v>
+        <v>2686.040403533821</v>
       </c>
       <c r="V14" t="n">
-        <v>2642.120401548715</v>
+        <v>2354.97751619025</v>
       </c>
       <c r="W14" t="n">
-        <v>2642.120401548715</v>
+        <v>2354.97751619025</v>
       </c>
       <c r="X14" t="n">
-        <v>2268.654643287635</v>
+        <v>2354.97751619025</v>
       </c>
       <c r="Y14" t="n">
-        <v>1878.515311311824</v>
+        <v>1964.838184214438</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>208.54453618662</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5461,25 +5461,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1546.944160717209</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C17" t="n">
-        <v>1177.981643776797</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D17" t="n">
-        <v>1177.981643776797</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E17" t="n">
-        <v>792.1933911785527</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F17" t="n">
-        <v>381.2074863889451</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533135</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
         <v>1836.345445977174</v>
@@ -5555,10 +5555,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>2323.683332757142</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y17" t="n">
-        <v>1933.54400078133</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="18">
@@ -5568,73 +5568,73 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036376</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204936</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5704,19 +5704,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V19" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1546.944160717209</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C20" t="n">
-        <v>1177.981643776797</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D20" t="n">
-        <v>1177.981643776797</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="E20" t="n">
-        <v>792.1933911785527</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="F20" t="n">
-        <v>381.2074863889451</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533141</v>
@@ -5756,7 +5756,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5789,13 +5789,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018222</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X20" t="n">
-        <v>2323.683332757142</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y20" t="n">
-        <v>1933.54400078133</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="21">
@@ -5805,73 +5805,73 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036376</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204936</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615921</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>789.063382757264</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414846</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.07275543519</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.317569050019</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036444</v>
+        <v>2488.969475804066</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036444</v>
+        <v>2488.969475804066</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036444</v>
+        <v>2338.852836391731</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036444</v>
+        <v>2338.852836391731</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036444</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K22" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U22" t="n">
-        <v>598.0446400632119</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V22" t="n">
-        <v>343.360151857325</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036444</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036444</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036444</v>
+        <v>2670.617940634306</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1577.945354755378</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C23" t="n">
-        <v>1208.982837814967</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D23" t="n">
-        <v>850.7171392082162</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E23" t="n">
-        <v>464.928886609972</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036444</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6017,22 +6017,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>2153.87838018277</v>
       </c>
       <c r="X23" t="n">
-        <v>2354.684526795312</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="Y23" t="n">
-        <v>1964.5451948195</v>
+        <v>1780.41262192169</v>
       </c>
     </row>
     <row r="24">
@@ -6042,73 +6042,73 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036376</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204936</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615921</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L24" t="n">
-        <v>789.063382757264</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.317569050019</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036444</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036444</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036444</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036444</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036444</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036444</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036444</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6178,19 +6178,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036444</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036444</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1491.915471247702</v>
+        <v>940.4137200851862</v>
       </c>
       <c r="C26" t="n">
-        <v>1122.952954307291</v>
+        <v>571.4512031447746</v>
       </c>
       <c r="D26" t="n">
-        <v>1122.952954307291</v>
+        <v>571.4512031447746</v>
       </c>
       <c r="E26" t="n">
-        <v>737.1647017090463</v>
+        <v>571.4512031447746</v>
       </c>
       <c r="F26" t="n">
-        <v>326.1787969194388</v>
+        <v>160.465298355167</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>160.465298355167</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036445</v>
@@ -6248,28 +6248,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V26" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W26" t="n">
-        <v>2642.120401548716</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X26" t="n">
-        <v>2268.654643287636</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y26" t="n">
-        <v>1878.515311311824</v>
+        <v>1327.013560149308</v>
       </c>
     </row>
     <row r="27">
@@ -6312,16 +6312,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6406,22 +6406,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U28" t="n">
-        <v>598.0446400632119</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V28" t="n">
-        <v>343.360151857325</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X28" t="n">
         <v>53.94298182036445</v>
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1491.915471247702</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="C29" t="n">
-        <v>1122.952954307291</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="D29" t="n">
-        <v>1122.952954307291</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="E29" t="n">
-        <v>737.1647017090463</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F29" t="n">
-        <v>326.1787969194388</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733126</v>
@@ -6485,28 +6485,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V29" t="n">
-        <v>2642.120401548716</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W29" t="n">
-        <v>2642.120401548716</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X29" t="n">
-        <v>2268.654643287636</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y29" t="n">
-        <v>1878.515311311824</v>
+        <v>991.2778500677821</v>
       </c>
     </row>
     <row r="30">
@@ -6540,19 +6540,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
         <v>2188.831293537797</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>2351.838471464281</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>2351.838471464281</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>2351.838471464281</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>2351.838471464281</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>2204.94852396637</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>2204.94852396637</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>2204.94852396637</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K31" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>2533.486936294521</v>
       </c>
       <c r="U31" t="n">
-        <v>598.0446400632119</v>
+        <v>2533.486936294521</v>
       </c>
       <c r="V31" t="n">
-        <v>343.360151857325</v>
+        <v>2533.486936294521</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036445</v>
+        <v>2533.486936294521</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>2533.486936294521</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>2533.486936294521</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1546.944160717209</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="C32" t="n">
-        <v>1177.981643776797</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D32" t="n">
-        <v>1177.981643776797</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E32" t="n">
-        <v>792.1933911785532</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F32" t="n">
-        <v>381.2074863889456</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6725,25 +6725,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018222</v>
+        <v>1695.806495672432</v>
       </c>
       <c r="X32" t="n">
-        <v>2323.683332757143</v>
+        <v>1322.340737411352</v>
       </c>
       <c r="Y32" t="n">
-        <v>1933.544000781331</v>
+        <v>1268.680947310029</v>
       </c>
     </row>
     <row r="33">
@@ -6753,73 +6753,73 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036376</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036376</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614623</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>2173.079728044488</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>2173.079728044488</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.26528169842</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T34" t="n">
-        <v>598.0446400632119</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U34" t="n">
-        <v>598.0446400632119</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V34" t="n">
-        <v>343.360151857325</v>
+        <v>2442.464602812335</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036445</v>
+        <v>2173.079728044488</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>2173.079728044488</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>2173.079728044488</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1491.915471247702</v>
+        <v>808.6937513590204</v>
       </c>
       <c r="C35" t="n">
-        <v>1122.95295430729</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="D35" t="n">
-        <v>1122.95295430729</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E35" t="n">
-        <v>737.1647017090459</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F35" t="n">
-        <v>326.1787969194383</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548715</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V35" t="n">
-        <v>2642.120401548715</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W35" t="n">
-        <v>2642.120401548715</v>
+        <v>1958.898681660034</v>
       </c>
       <c r="X35" t="n">
-        <v>2268.654643287635</v>
+        <v>1585.432923398954</v>
       </c>
       <c r="Y35" t="n">
-        <v>1878.515311311824</v>
+        <v>1195.293591423142</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2022.963088632152</v>
+        <v>76.27673242182055</v>
       </c>
       <c r="C37" t="n">
-        <v>2022.963088632152</v>
+        <v>76.27673242182055</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632152</v>
+        <v>76.27673242182055</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632152</v>
+        <v>76.27673242182055</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632152</v>
+        <v>76.27673242182055</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632152</v>
+        <v>76.27673242182055</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632152</v>
+        <v>76.27673242182055</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U37" t="n">
-        <v>2567.064746875</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="V37" t="n">
-        <v>2312.380258669113</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="W37" t="n">
-        <v>2022.963088632152</v>
+        <v>76.27673242182055</v>
       </c>
       <c r="X37" t="n">
-        <v>2022.963088632152</v>
+        <v>76.27673242182055</v>
       </c>
       <c r="Y37" t="n">
-        <v>2022.963088632152</v>
+        <v>76.27673242182055</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1491.915471247703</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C38" t="n">
-        <v>1268.68094731003</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D38" t="n">
         <v>1268.68094731003</v>
@@ -7163,61 +7163,61 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X38" t="n">
-        <v>2268.654643287636</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y38" t="n">
-        <v>1878.515311311824</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>546.4805193761947</v>
+        <v>329.7728273507103</v>
       </c>
       <c r="C40" t="n">
-        <v>377.5443364482878</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D40" t="n">
-        <v>377.5443364482878</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>377.5443364482878</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>377.5443364482878</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>208.5445361866202</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7351,31 +7351,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.1289842064344</v>
+        <v>329.7728273507103</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1878.515311311824</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C41" t="n">
-        <v>1509.552794371413</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D41" t="n">
-        <v>1151.287095764662</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E41" t="n">
-        <v>765.4988431664181</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>354.5129383768105</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7424,7 +7424,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P41" t="n">
         <v>2544.691559791253</v>
@@ -7433,28 +7433,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.654643287636</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y41" t="n">
-        <v>1878.515311311824</v>
+        <v>1933.544000781332</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204945</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K42" t="n">
-        <v>384.447464661593</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572649</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7533,7 +7533,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2226.083456151022</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C43" t="n">
-        <v>2057.147273223115</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D43" t="n">
-        <v>2057.147273223115</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E43" t="n">
-        <v>2057.147273223115</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F43" t="n">
-        <v>2057.147273223115</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G43" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H43" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K43" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N43" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q43" t="n">
-        <v>2697.149091018223</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.149091018223</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.149091018223</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="T43" t="n">
-        <v>2697.149091018223</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="U43" t="n">
-        <v>2697.149091018223</v>
+        <v>261.3917961488085</v>
       </c>
       <c r="V43" t="n">
-        <v>2697.149091018223</v>
+        <v>261.3917961488085</v>
       </c>
       <c r="W43" t="n">
-        <v>2407.731920981262</v>
+        <v>261.3917961488085</v>
       </c>
       <c r="X43" t="n">
-        <v>2407.731920981262</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y43" t="n">
-        <v>2407.731920981262</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1491.915471247703</v>
+        <v>214.5386780278495</v>
       </c>
       <c r="C44" t="n">
-        <v>1122.952954307291</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D44" t="n">
-        <v>1122.952954307291</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E44" t="n">
-        <v>737.1647017090468</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F44" t="n">
-        <v>326.1787969194392</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J44" t="n">
         <v>169.7108380533141</v>
@@ -7652,7 +7652,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7661,7 +7661,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P44" t="n">
         <v>2544.691559791253</v>
@@ -7670,28 +7670,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942548</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>1717.512263598977</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548716</v>
+        <v>1364.743608328863</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.654643287636</v>
+        <v>991.277850067783</v>
       </c>
       <c r="Y44" t="n">
-        <v>1878.515311311824</v>
+        <v>601.1385180919713</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C46" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D46" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E46" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F46" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7813,7 +7813,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N46" t="n">
         <v>529.6040388502502</v>
@@ -7822,34 +7822,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296043</v>
       </c>
       <c r="V46" t="n">
-        <v>473.4444960005476</v>
+        <v>211.6471865296043</v>
       </c>
       <c r="W46" t="n">
-        <v>184.027325963587</v>
+        <v>211.6471865296043</v>
       </c>
       <c r="X46" t="n">
-        <v>184.027325963587</v>
+        <v>211.6471865296043</v>
       </c>
       <c r="Y46" t="n">
-        <v>184.027325963587</v>
+        <v>211.6471865296043</v>
       </c>
     </row>
   </sheetData>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9018,13 +9018,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>145.0294169142013</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747169</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10197,7 +10197,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23264,13 +23264,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>89.79231049790008</v>
+        <v>233.8293838903397</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,16 +23428,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>138.0809718115404</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
@@ -23473,16 +23473,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>28.98780970275092</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>144.2707130727119</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23549,16 +23549,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>240.2265668987315</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>138.0809718115404</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
         <v>45.19995918853701</v>
@@ -23701,7 +23701,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>49.80904827649567</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
@@ -23713,13 +23713,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,13 +23729,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>164.3604017932788</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,13 +23744,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>89.79231049790008</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23795,10 +23795,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>24.6204915453564</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23944,16 +23944,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23972,22 +23972,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>149.9330969878002</v>
       </c>
       <c r="G20" t="n">
-        <v>89.79231049790008</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24181,19 +24181,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>192.3188144720178</v>
       </c>
     </row>
     <row r="23">
@@ -24203,10 +24203,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24218,13 +24218,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,7 +24257,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
@@ -24266,13 +24266,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>27.85128534797332</v>
       </c>
       <c r="X23" t="n">
-        <v>30.69118209778793</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24382,7 +24382,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>91.6477683531985</v>
       </c>
       <c r="J25" t="n">
         <v>45.19995918853701</v>
@@ -24418,19 +24418,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24449,16 +24449,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>144.2707130727114</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>218.4656793949026</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24497,13 +24497,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>182.1034537888982</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,28 +24677,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>19.68433677297458</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>144.2707130727114</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24725,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24847,7 +24847,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24856,10 +24856,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24889,16 +24889,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>63.00957228161946</v>
       </c>
       <c r="U31" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24929,7 +24929,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24965,25 +24965,25 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>333.1147464557437</v>
       </c>
     </row>
     <row r="33">
@@ -25078,7 +25078,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25126,7 +25126,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>96.25160475629417</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>19.83197231642237</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25163,10 +25163,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>144.2707130727119</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,22 +25199,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>44.01294377006695</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25330,10 +25330,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>112.8552086968967</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,22 +25354,22 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>157.4983735401879</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25388,13 +25388,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>79.2024603475752</v>
       </c>
       <c r="C38" t="n">
-        <v>144.2707130727111</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>42.79074704179787</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,10 +25561,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>3.115350019201941</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
         <v>134.9656217923382</v>
@@ -25591,10 +25591,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25615,7 +25615,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>62.54498204631994</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>116.2199130299135</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,16 +25798,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>133.4674595139984</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,10 +25828,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25840,16 +25840,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>155.3009509962158</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25865,25 +25865,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>206.2831525255974</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>144.270713072711</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,22 +25910,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>23.70481751978994</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>38.52630155726061</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26044,7 +26044,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,7 +26065,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801578</v>
@@ -26074,16 +26074,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>679508.6335370304</v>
+        <v>679508.6335370307</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>679508.6335370304</v>
+        <v>679508.6335370307</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>679508.6335370304</v>
+        <v>679508.6335370307</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>679508.6335370305</v>
+        <v>679508.6335370307</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>679508.6335370304</v>
+        <v>679508.6335370305</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>679508.6335370305</v>
+        <v>679508.6335370307</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>679508.6335370304</v>
+        <v>679508.6335370307</v>
       </c>
     </row>
     <row r="16">
@@ -26320,34 +26320,34 @@
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
+        <v>332525.5015181213</v>
+      </c>
+      <c r="F2" t="n">
+        <v>332525.5015181213</v>
+      </c>
+      <c r="G2" t="n">
         <v>332525.5015181212</v>
       </c>
-      <c r="F2" t="n">
-        <v>332525.5015181211</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>332525.5015181213</v>
-      </c>
-      <c r="H2" t="n">
-        <v>332525.5015181212</v>
       </c>
       <c r="I2" t="n">
         <v>332525.5015181212</v>
       </c>
       <c r="J2" t="n">
-        <v>332525.5015181212</v>
+        <v>332525.5015181213</v>
       </c>
       <c r="K2" t="n">
         <v>332525.5015181212</v>
       </c>
       <c r="L2" t="n">
+        <v>332525.5015181212</v>
+      </c>
+      <c r="M2" t="n">
         <v>332525.5015181213</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>332525.5015181212</v>
-      </c>
-      <c r="N2" t="n">
-        <v>332525.5015181211</v>
       </c>
       <c r="O2" t="n">
         <v>332525.5015181212</v>
@@ -26451,13 +26451,13 @@
         <v>513.1084990597035</v>
       </c>
       <c r="N4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="O4" t="n">
         <v>513.1084990597036</v>
       </c>
       <c r="P4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
     </row>
     <row r="5">
@@ -26500,16 +26500,16 @@
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="N5" t="n">
         <v>49231.47806340946</v>
       </c>
-      <c r="N5" t="n">
-        <v>49231.47806340947</v>
-      </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340949</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340949</v>
       </c>
     </row>
     <row r="6">
@@ -26525,13 +26525,13 @@
         <v>250180.8004279344</v>
       </c>
       <c r="D6" t="n">
-        <v>250180.8004279344</v>
+        <v>250180.8004279345</v>
       </c>
       <c r="E6" t="n">
         <v>282780.9149556521</v>
       </c>
       <c r="F6" t="n">
-        <v>282780.914955652</v>
+        <v>282780.9149556521</v>
       </c>
       <c r="G6" t="n">
         <v>282780.9149556521</v>
@@ -26543,7 +26543,7 @@
         <v>282780.9149556521</v>
       </c>
       <c r="J6" t="n">
-        <v>106357.6957630591</v>
+        <v>106357.6957630592</v>
       </c>
       <c r="K6" t="n">
         <v>282780.9149556521</v>
@@ -26552,16 +26552,16 @@
         <v>282780.9149556521</v>
       </c>
       <c r="M6" t="n">
-        <v>282780.914955652</v>
+        <v>282780.9149556521</v>
       </c>
       <c r="N6" t="n">
-        <v>282780.914955652</v>
+        <v>282780.9149556521</v>
       </c>
       <c r="O6" t="n">
         <v>282780.914955652</v>
       </c>
       <c r="P6" t="n">
-        <v>282780.9149556521</v>
+        <v>282780.914955652</v>
       </c>
     </row>
   </sheetData>
@@ -26768,16 +26768,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
     </row>
     <row r="4">
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -26817,19 +26817,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="M4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="N4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="M4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="N4" t="n">
-        <v>674.2872727545557</v>
-      </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>113.1909967053453</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>49.20265057320601</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.74592769735781</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>83.12091415361559</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>44.68667999278637</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>281.1539702597875</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27828,19 +27828,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>174.4088577256821</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>323.9333818493301</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,13 +27862,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>140.778800592838</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>30.71650754331245</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>62.45749068994772</v>
       </c>
     </row>
     <row r="11">
@@ -31136,7 +31136,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>162.451812657641</v>
+        <v>162.4518126576415</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>11.76595806653307</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31385,19 +31385,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,19 +31592,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>87.78329382423999</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,13 +31750,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31774,22 +31774,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31856,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>139.432625713487</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,13 +31932,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31947,7 +31947,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -32096,7 +32096,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>50.44659727034981</v>
@@ -32248,7 +32248,7 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P17" t="n">
         <v>218.3719038954666</v>
@@ -32333,7 +32333,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>50.44659727034981</v>
@@ -32570,7 +32570,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>50.44659727034981</v>
@@ -32789,7 +32789,7 @@
         <v>76.76392708396475</v>
       </c>
       <c r="K24" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L24" t="n">
         <v>176.4169820478007</v>
@@ -33032,7 +33032,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M27" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993508</v>
       </c>
       <c r="N27" t="n">
         <v>211.31907117367</v>
@@ -33260,7 +33260,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33275,7 +33275,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O30" t="n">
-        <v>73.87984549392741</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
         <v>155.1528646479577</v>
@@ -33503,7 +33503,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L33" t="n">
-        <v>176.4169820478007</v>
+        <v>132.9984977071303</v>
       </c>
       <c r="M33" t="n">
         <v>205.8702969983122</v>
@@ -33646,46 +33646,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33752,22 +33752,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33804,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,22 +33828,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33971,13 +33971,13 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L39" t="n">
-        <v>176.4169820478007</v>
+        <v>132.9984977071302</v>
       </c>
       <c r="M39" t="n">
         <v>205.8702969983122</v>
@@ -34126,7 +34126,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34135,16 +34135,16 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M41" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P41" t="n">
         <v>218.3719038954667</v>
@@ -34153,16 +34153,16 @@
         <v>163.9882055044138</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,40 +34199,40 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I42" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L42" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M42" t="n">
-        <v>86.43447689993462</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N42" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O42" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P42" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
@@ -34241,7 +34241,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34278,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,25 +34302,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,7 +34363,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34372,34 +34372,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M44" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P44" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,40 +34436,40 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I45" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L45" t="n">
-        <v>176.4169820478007</v>
+        <v>132.9984977071301</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N45" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O45" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P45" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
@@ -34478,7 +34478,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,25 +34539,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856226</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047527</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35422,10 +35422,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35501,13 +35501,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
-        <v>323.920986939094</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35583,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35738,13 +35738,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181304</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
         <v>297.2230414343419</v>
@@ -35896,7 +35896,7 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P17" t="n">
         <v>308.9376163116797</v>
@@ -35963,7 +35963,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K18" t="n">
-        <v>138.3897561047525</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35981,7 +35981,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36455,7 +36455,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N27" t="n">
         <v>559.3197334338902</v>
@@ -36692,7 +36692,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36917,13 +36917,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N30" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
@@ -37151,7 +37151,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307153</v>
       </c>
       <c r="M33" t="n">
         <v>529.4413268262938</v>
@@ -37166,7 +37166,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,25 +37303,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37394,16 +37394,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37479,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307152</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
@@ -37640,7 +37640,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,16 +37783,16 @@
         <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M41" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P41" t="n">
         <v>308.9376163116798</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M42" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N42" t="n">
         <v>559.3197334338903</v>
@@ -37877,7 +37877,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37950,10 +37950,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O43" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38020,22 +38020,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M44" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P44" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307151</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N45" t="n">
         <v>559.3197334338903</v>
@@ -38114,7 +38114,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38187,10 +38187,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O46" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1663383.304241981</v>
+        <v>1654739.525348074</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>611898.1214354135</v>
+        <v>672077.8214627802</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1702443.552109824</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10539372.29004432</v>
+        <v>10757764.99812417</v>
       </c>
     </row>
     <row r="11">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>335.6609890346908</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>275.3850989652563</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>56.88196987815823</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>128.7835007017902</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>411.4450956504851</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>116.8083228660702</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>9.461970681989104</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>133.9566202902067</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>403.2634945072134</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>28.13446210676921</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>142.6271181085172</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>128.7282531589278</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>207.9529206055939</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>99.90681807664346</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958671</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183517</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>106.5654198538176</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>69.27142932050975</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>264.8835242011501</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664346</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958671</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183517</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>92.81262041878036</v>
       </c>
       <c r="C16" t="n">
-        <v>106.5654198538176</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1903,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>16.21850068608594</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2058,13 +2058,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>88.23851788996306</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2140,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002187</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2335,10 +2335,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>38.16776665734871</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2730,10 +2730,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>213.4998989363463</v>
+        <v>147.1163355383938</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>118.4898845065132</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3246,13 +3246,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>110.7287693225063</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>161.9299707215265</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>71.03759657939776</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>9.1524075981136</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>135.0256963802046</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3915,10 +3915,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>32.33602639002968</v>
+        <v>207.9577844203815</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1865.381229508782</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C2" t="n">
-        <v>1496.41871256837</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D2" t="n">
-        <v>1138.15301396162</v>
+        <v>819.7159451700475</v>
       </c>
       <c r="E2" t="n">
-        <v>1138.15301396162</v>
+        <v>819.7159451700475</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>812.770444420844</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y2" t="n">
-        <v>2251.981069572904</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4406,19 +4406,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4430,22 +4430,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>111.3995170508273</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245972</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245972</v>
+        <v>184.0273259635869</v>
       </c>
       <c r="X4" t="n">
-        <v>513.8405610245972</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y4" t="n">
-        <v>293.047981881067</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1394.624369323446</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>1624.583944532628</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1266.318245925878</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>880.5299933276337</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>469.5440885380262</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278602</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X5" t="n">
-        <v>2171.363541363379</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y5" t="n">
-        <v>1781.224209387568</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4652,13 +4652,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>563.4023475952011</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>563.4023475952011</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>563.4023475952011</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>718.5714380630109</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T7" t="n">
-        <v>563.4023475952011</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>563.4023475952011</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>563.4023475952011</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>563.4023475952011</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>563.4023475952011</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>563.4023475952011</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.553390680693</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>2096.980396922474</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>1738.714698315723</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1352.926445717479</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>941.9405409278713</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4801,22 +4801,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.52426527019</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.52426527019</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.461377926619</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W8" t="n">
-        <v>1753.692722656504</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="X8" t="n">
-        <v>1753.692722656504</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="Y8" t="n">
-        <v>1363.553390680693</v>
+        <v>2465.942913862885</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4892,34 +4892,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500.820796875036</v>
+        <v>517.0636002298164</v>
       </c>
       <c r="C10" t="n">
-        <v>331.8846139471291</v>
+        <v>348.1274173019095</v>
       </c>
       <c r="D10" t="n">
-        <v>331.8846139471291</v>
+        <v>198.0107778895738</v>
       </c>
       <c r="E10" t="n">
-        <v>183.971520364736</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>183.971520364736</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1397.061718429193</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>1028.099201488781</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>669.8335028820304</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>284.0452502837862</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>73.99179512662059</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>73.99179512662059</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>73.99179512662059</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>73.99179512662059</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>262.6316941403567</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>666.0988071604019</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1218.912065406601</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>1850.629876389912</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>2477.937544449758</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3025.098749216835</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>3454.413795556129</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>3699.589756331029</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>3699.589756331029</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>3699.589756331029</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>3484.78989459874</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>3231.098191343891</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>2900.03530400032</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>2547.266648730206</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>2173.800890469126</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>1783.661558493314</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8126299914996</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>73.99179512662059</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>73.99179512662059</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>403.4201994324302</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>907.7817392985485</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M12" t="n">
-        <v>1482.339710104226</v>
+        <v>772.8730769161741</v>
       </c>
       <c r="N12" t="n">
-        <v>2155.545402357008</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O12" t="n">
-        <v>2404.29881644097</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2586.942294054321</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2656.33685256765</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S12" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1073.926476585965</v>
+        <v>484.0375086983735</v>
       </c>
       <c r="C13" t="n">
-        <v>966.2846383497852</v>
+        <v>315.1013257704666</v>
       </c>
       <c r="D13" t="n">
-        <v>816.1679989374494</v>
+        <v>315.1013257704666</v>
       </c>
       <c r="E13" t="n">
-        <v>668.2549053550563</v>
+        <v>167.1882321880735</v>
       </c>
       <c r="F13" t="n">
-        <v>521.3649578571459</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>352.7581128525293</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>198.5034697522943</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>73.99179512662059</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>73.99179512662059</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>175.0397247222303</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>359.8727196230485</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>565.1423203422863</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>770.9656851783905</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>945.0605805669892</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1070.508157165605</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1073.926476585965</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1073.926476585965</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1073.926476585965</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1073.926476585965</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1073.926476585965</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1073.926476585965</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>1073.926476585965</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>1073.926476585965</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y13" t="n">
-        <v>1073.926476585965</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1865.553283416332</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>1496.59076647592</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1138.32506786917</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>752.5368152709252</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>341.5509104813177</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>73.9917951266206</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>73.9917951266206</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
-        <v>73.9917951266206</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>262.631694140357</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>666.0988071604022</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1218.912065406601</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>1850.629876389912</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>2477.937544449759</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216836</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>3454.41379555613</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>3699.58975633103</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>3699.58975633103</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>3699.58975633103</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>3699.58975633103</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>3699.58975633103</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3368.526868987459</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3015.758213717345</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>2642.292455456265</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2252.153123480453</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8126299914996</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>73.9917951266206</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>73.9917951266206</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>403.4201994324303</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>907.7817392985485</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.11705882825</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N15" t="n">
-        <v>1452.219619273624</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="O15" t="n">
-        <v>2001.655628026346</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P15" t="n">
-        <v>2425.623396507183</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
-        <v>2656.33685256765</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S15" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1073.926476585965</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C16" t="n">
-        <v>966.2846383497852</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D16" t="n">
-        <v>816.1679989374494</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E16" t="n">
-        <v>668.2549053550563</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>521.3649578571459</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>352.7581128525293</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>198.5034697522943</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>73.9917951266206</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>73.9917951266206</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>175.0397247222303</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>359.8727196230485</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>565.1423203422863</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
-        <v>770.9656851783905</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>945.0605805669892</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1070.508157165605</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1073.926476585965</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1073.926476585965</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1073.926476585965</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1073.926476585965</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1073.926476585965</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1073.926476585965</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>1073.926476585965</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X16" t="n">
-        <v>1073.926476585965</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y16" t="n">
-        <v>1073.926476585965</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="17">
@@ -5521,13 +5521,13 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>865.5852378527474</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N18" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5706,19 +5706,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>1186.00103929694</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>896.5838692599799</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X19" t="n">
-        <v>668.5943183619626</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.8017392184324</v>
+        <v>282.5355983135321</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4744.160657054475</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>4520.375241843982</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>4231.24660305754</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>3976.562114851653</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>3687.144944814692</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="23">
@@ -5971,31 +5971,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>904.39166832551</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>1224.726987855212</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.071707946799</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>434.1014931486233</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>434.1014931486233</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>434.1014931486233</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>286.1883995662301</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>286.1883995662301</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>286.1883995662301</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>135.7703911141734</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1133.156678913841</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>843.7395088768803</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>615.749957978863</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>615.749957978863</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,25 +6205,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823786</v>
@@ -6235,10 +6235,10 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6250,25 +6250,25 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028583</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028583</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>865.5852378527474</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>1210.105893490365</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4334.202995919602</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C28" t="n">
-        <v>4334.202995919602</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D28" t="n">
-        <v>4184.086356507267</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E28" t="n">
-        <v>4036.173262924874</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426963</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.859459491669</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4334.202995919602</v>
+        <v>1350.313911428212</v>
       </c>
       <c r="U28" t="n">
-        <v>4334.202995919602</v>
+        <v>1350.313911428212</v>
       </c>
       <c r="V28" t="n">
-        <v>4334.202995919602</v>
+        <v>1350.313911428212</v>
       </c>
       <c r="W28" t="n">
-        <v>4334.202995919602</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="X28" t="n">
-        <v>4334.202995919602</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="Y28" t="n">
-        <v>4334.202995919602</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,40 +6448,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>222.5746515181232</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L30" t="n">
-        <v>836.4717212750119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M30" t="n">
-        <v>1604.839867667473</v>
+        <v>334.2881267578673</v>
       </c>
       <c r="N30" t="n">
-        <v>2122.782055165496</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O30" t="n">
-        <v>2371.535469249458</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014292</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>4571.72593422785</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>4317.041446021964</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>4027.624275985003</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>3799.634725086986</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>3578.842145943456</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263798</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>2501.346796321636</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>2731.309902189985</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>3051.645221719687</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>3713.637916782568</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>4383.101678085227</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.745155698578</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>563.1598612984388</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>675.0071030383442</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>563.1598612984388</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>563.1598612984388</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>563.1598612984388</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>563.1598612984388</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,40 +6928,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>2911.709630095316</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="M36" t="n">
-        <v>3232.044949625018</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="N36" t="n">
-        <v>3576.565605262635</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O36" t="n">
-        <v>4246.029366565294</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>1498.916270557902</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>1498.916270557902</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7153,34 +7153,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382245</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7192,31 +7192,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7241,37 +7241,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>904.39166832551</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1224.726987855212</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>1569.24764349283</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2033.878325127062</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.6385818722729</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C40" t="n">
-        <v>705.702398944366</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D40" t="n">
-        <v>555.5857595320302</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E40" t="n">
-        <v>407.6726659496371</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F40" t="n">
-        <v>260.7827184517267</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909234</v>
+        <v>1427.161122497905</v>
       </c>
       <c r="U40" t="n">
-        <v>1164.055751909234</v>
+        <v>1138.032483711463</v>
       </c>
       <c r="V40" t="n">
-        <v>1164.055751909234</v>
+        <v>883.3479955055759</v>
       </c>
       <c r="W40" t="n">
-        <v>874.6385818722729</v>
+        <v>593.9308254686154</v>
       </c>
       <c r="X40" t="n">
-        <v>874.6385818722729</v>
+        <v>593.9308254686154</v>
       </c>
       <c r="Y40" t="n">
-        <v>874.6385818722729</v>
+        <v>593.9308254686154</v>
       </c>
     </row>
     <row r="41">
@@ -7390,37 +7390,37 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
         <v>3183.709822619127</v>
@@ -7429,31 +7429,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,37 +7478,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>222.5746515181232</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>550.0023305088838</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>1318.370476901345</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="N42" t="n">
-        <v>2122.782055165496</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O42" t="n">
-        <v>2371.535469249458</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P42" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>981.5095496229244</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="C43" t="n">
-        <v>972.2646934632137</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="D43" t="n">
-        <v>822.1480540508779</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W43" t="n">
-        <v>1209.499100520942</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X43" t="n">
-        <v>981.5095496229244</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="Y43" t="n">
-        <v>981.5095496229244</v>
+        <v>696.5850465240057</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7651,7 +7651,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7666,7 +7666,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7727,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>222.5746515181232</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="L45" t="n">
-        <v>222.5746515181232</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="M45" t="n">
-        <v>542.909971047825</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.699705022018</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>414.0663679705859</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C46" t="n">
-        <v>245.130185042679</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>964.1357418247858</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>964.1357418247858</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W46" t="n">
-        <v>674.7185717878251</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X46" t="n">
-        <v>446.7290208898078</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y46" t="n">
-        <v>414.0663679705859</v>
+        <v>710.3120936331045</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>6.233205181928483</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>6.233205181928483</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9017,16 +9017,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>25.70284726536275</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9494,16 +9494,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9731,13 +9731,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9968,13 +9968,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>321.7348561773886</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,13 +10193,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>381.5997261417975</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10214,7 +10214,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10442,16 +10442,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10670,13 +10670,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10688,7 +10688,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11147,10 +11147,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>289.0870542489701</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,10 +11159,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>198.5685309419536</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11399,7 +11399,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>198.9231251361175</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938904</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23415,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>60.68140124481022</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>76.14961870242149</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
-        <v>17.69584188176906</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>129.1731816677914</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001187</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>148.0333797447867</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938904</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>87.01935976315694</v>
       </c>
       <c r="C16" t="n">
-        <v>60.68140124481022</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,13 +23670,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176906</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677914</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001187</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>163.6134794958514</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>163.8991254338649</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338454</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>72.25147880692327</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>8.047662122042965</v>
+        <v>74.43122551999542</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>61.34209567542406</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,16 +25077,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>141.4088740013217</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>4.563597741851083</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>150.5099644789915</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>158.0944135005142</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>13.58977663800772</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26025,19 +26025,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.2486269620651</v>
+        <v>10.62686893171332</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>793678.7908793107</v>
+        <v>918918.290383616</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>793678.7908793108</v>
+        <v>918918.2903836161</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>918918.2903836162</v>
+        <v>918918.2903836161</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>918918.2903836162</v>
+        <v>918918.2903836161</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>918918.2903836161</v>
+        <v>918918.2903836162</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
-        <v>388396.0040473219</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="F2" t="n">
-        <v>388396.0040473218</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="G2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="H2" t="n">
+        <v>449683.418698365</v>
+      </c>
+      <c r="I2" t="n">
+        <v>449683.418698365</v>
+      </c>
+      <c r="J2" t="n">
+        <v>449683.4186983651</v>
+      </c>
+      <c r="K2" t="n">
         <v>449683.4186983652</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>449683.4186983651</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="N2" t="n">
         <v>449683.418698365</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>449683.4186983651</v>
       </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>449683.4186983652</v>
-      </c>
-      <c r="M2" t="n">
-        <v>449683.4186983651</v>
-      </c>
-      <c r="N2" t="n">
-        <v>449683.4186983651</v>
-      </c>
-      <c r="O2" t="n">
-        <v>449683.4186983652</v>
-      </c>
-      <c r="P2" t="n">
-        <v>449683.4186983653</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>248146.7686188438</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>263762.8892659093</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62453.05588965317</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>69864.88484991094</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.139180619</v>
+      </c>
+      <c r="C4" t="n">
         <v>139059.1391806191</v>
-      </c>
-      <c r="C4" t="n">
-        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>639.5264553066589</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>639.5264553066588</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758694</v>
@@ -26459,7 +26459,7 @@
         <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>82859.07806340947</v>
+      </c>
+      <c r="C5" t="n">
         <v>82859.07806340946</v>
-      </c>
-      <c r="C5" t="n">
-        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>69171.54328360144</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>69171.54328360147</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="I5" t="n">
+      <c r="N5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-339787.07878661</v>
+        <v>-339787.0787866101</v>
       </c>
       <c r="C6" t="n">
-        <v>250180.8004279344</v>
+        <v>250180.8004279345</v>
       </c>
       <c r="D6" t="n">
         <v>250180.8004279344</v>
       </c>
       <c r="E6" t="n">
-        <v>70438.16568956999</v>
+        <v>-169226.328677545</v>
       </c>
       <c r="F6" t="n">
-        <v>318584.9343084136</v>
+        <v>355933.707799351</v>
       </c>
       <c r="G6" t="n">
-        <v>93145.40979316333</v>
+        <v>355933.707799351</v>
       </c>
       <c r="H6" t="n">
-        <v>356908.2990590726</v>
+        <v>355933.7077993508</v>
       </c>
       <c r="I6" t="n">
-        <v>356908.2990590726</v>
+        <v>355933.7077993509</v>
       </c>
       <c r="J6" t="n">
-        <v>180485.0798664797</v>
+        <v>179510.488606758</v>
       </c>
       <c r="K6" t="n">
-        <v>356908.2990590726</v>
+        <v>355933.707799351</v>
       </c>
       <c r="L6" t="n">
-        <v>356908.2990590726</v>
+        <v>355933.707799351</v>
       </c>
       <c r="M6" t="n">
-        <v>294455.2431694195</v>
+        <v>221132.6925655138</v>
       </c>
       <c r="N6" t="n">
-        <v>356908.2990590726</v>
+        <v>355933.7077993508</v>
       </c>
       <c r="O6" t="n">
-        <v>287043.4142091618</v>
+        <v>355933.707799351</v>
       </c>
       <c r="P6" t="n">
-        <v>356908.2990590728</v>
+        <v>355933.707799351</v>
       </c>
     </row>
   </sheetData>
@@ -26737,37 +26737,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380645</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>593.4761003380645</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26776,10 +26776,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="C4" t="n">
-        <v>674.2872727545557</v>
-      </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>924.8974390827573</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>924.8974390827575</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215.7324361209779</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>236.9063051160358</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>250.6101663282017</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>290.3162041708156</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282017</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708156</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282017</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708156</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>71.21505670702066</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>138.3990710555387</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>110.3648512204696</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724696</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2.339074370309845</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>252.9227778123988</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27782,13 +27782,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>19.6607792729252</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>91.0784851678776</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27855,19 +27855,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>10.52067551358164</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>188.3138582508886</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>3.806844538051934</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>38.58154910012311</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28064,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31141,28 +31141,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,22 +31357,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>56.98116194942338</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31381,25 +31381,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392695</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31612,7 +31612,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>86.43447689993462</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958058</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.385833569198248</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>24.43391804055156</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>91.97984867651553</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>202.4946418937399</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>303.4869768779018</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>376.5024309712527</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>418.9314987074821</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>425.7102483359666</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>401.9861157822515</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>343.0858495426697</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>257.6431848457574</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411495</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>54.36718245810512</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>10.44398644916533</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1908666855358598</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.276533498840365</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>12.328626159853</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>43.95082441182837</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>120.6044214847382</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>206.1321659070427</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>277.1701353512819</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>256.7905568444195</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>332.005087490065</v>
+        <v>21.5211843113392</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>79.25705355080797</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>23.71104985784624</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308312</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08398246702897143</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.070202803888313</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>9.515075838207007</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>32.18391704784128</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>75.66333823490372</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>124.338107579024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>159.1099695889952</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>167.7591540676925</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>163.7702163441089</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>151.2683017714136</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>129.4361645720919</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.61489115104774</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>48.12020970937813</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>18.65071613685359</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>4.57268470752279</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05837469839390805</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.385833569198248</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055156</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651553</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>202.4946418937399</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779018</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>376.5024309712527</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074821</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>425.7102483359666</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822515</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426697</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.6431848457574</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411495</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810512</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916533</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358598</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.276533498840365</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>12.328626159853</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>43.95082441182837</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>120.6044214847382</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070427</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512819</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>332.005087490065</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>303.7197925947074</v>
+        <v>321.3397097835</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671571</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.9483813607456</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080797</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>23.71104985784624</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308312</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08398246702897143</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.070202803888313</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838207007</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784128</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490372</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>124.338107579024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>159.1099695889952</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676925</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>163.7702163441089</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714136</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>129.4361645720919</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.61489115104774</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937813</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>18.65071613685359</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>4.57268470752279</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05837469839390805</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32314,28 +32314,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>407.2149112442124</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,28 +32560,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>408.5315900543043</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,22 +32788,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>134.1657216706756</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -32815,10 +32815,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,16 +32964,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,37 +33025,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33268,31 +33268,31 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>175.1732645054592</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,37 +33499,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>320.6788277022858</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33681,7 +33681,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S35" t="n">
         <v>76.06970478104648</v>
@@ -33742,7 +33742,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>225.9373985850584</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -33754,7 +33754,7 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>138.4568803231644</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33973,31 +33973,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
-        <v>218.0578460103734</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,37 +34210,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>98.44906376001154</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,19 +34447,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>253.8071498349242</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.5453525391274</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>407.542538404086</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517159</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>638.0987989730419</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513599</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233101</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>433.6515619588828</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.6524856312126</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>332.7559639452622</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>509.4561008748669</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>580.3615866724011</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>680.0057497502852</v>
+        <v>369.5218465715594</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>102.0686157531411</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>186.6999948493113</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>207.3430310295331</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>207.9023887233375</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>175.8534296854533</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>126.7147238369854</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.452847899353358</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391274</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>407.542538404086</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517159</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730419</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513599</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233101</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588828</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312126</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>332.7559639452622</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748669</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>226.3662226720944</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269925</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="P15" t="n">
-        <v>428.250271192764</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.0438950105732</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>102.0686157531411</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>186.6999948493113</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295331</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233375</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>175.8534296854533</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369854</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353358</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>275.8731991608792</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>756.5322523145245</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>482.1663839308958</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
-        <v>604.0985584184967</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>239.4656922197792</v>
       </c>
       <c r="N30" t="n">
-        <v>523.1739267656794</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>668.6794899625061</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>458.2233641086434</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>322.9452415487713</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
-        <v>469.3239208426585</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>330.7350292835965</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>146.9530203269518</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>60.72709196759461</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>601.8078120951444</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
@@ -38119,7 +38119,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1654739.525348074</v>
+        <v>1660797.023521537</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>672077.8214627802</v>
+        <v>385373.1275958307</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1702443.552109827</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10757764.99812417</v>
+        <v>10539372.29004432</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>275.3850989652563</v>
+        <v>360.3668541246457</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>128.7835007017902</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.4450956504851</v>
+        <v>192.7321714934186</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>9.461970681989104</v>
+        <v>28.11374845278241</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>403.2634945072134</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1186,10 +1186,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>138.3038958997682</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>142.6271181085172</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113174</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>118.4960408938905</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>80.15602624439992</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>20.90078060183529</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T12" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>19.59299030330173</v>
       </c>
       <c r="F13" t="n">
-        <v>69.27142932050975</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>264.8835242011452</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>20.90078060183529</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T15" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.81262041878036</v>
+        <v>156.4575868550213</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.21850068608594</v>
+        <v>146.2787299119459</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>139.1537278750036</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2335,7 +2335,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
         <v>81.77913505274077</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>3.347695664762908</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>147.1163355383938</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>51.49981888736104</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2955,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>137.4666466457415</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>29.3220157029459</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,13 +3246,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>71.03759657939776</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>225.1809026611657</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>67.61524188852295</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>135.0256963802046</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3915,10 +3915,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>52.85023237226025</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4152,10 +4152,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>207.9577844203815</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1546.94416071721</v>
+        <v>1121.052642832205</v>
       </c>
       <c r="C2" t="n">
-        <v>1177.981643776798</v>
+        <v>752.0901258917932</v>
       </c>
       <c r="D2" t="n">
-        <v>819.7159451700475</v>
+        <v>752.0901258917932</v>
       </c>
       <c r="E2" t="n">
-        <v>819.7159451700475</v>
+        <v>752.0901258917932</v>
       </c>
       <c r="F2" t="n">
-        <v>812.770444420844</v>
+        <v>745.1446251425897</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018223</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018223</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018223</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X2" t="n">
-        <v>2323.683332757143</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y2" t="n">
-        <v>1933.544000781331</v>
+        <v>1507.652482896327</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4430,28 +4430,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036446</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005475</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>184.0273259635869</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1993.54646147304</v>
+        <v>1490.978909181595</v>
       </c>
       <c r="C5" t="n">
-        <v>1624.583944532628</v>
+        <v>1122.016392241183</v>
       </c>
       <c r="D5" t="n">
-        <v>1266.318245925878</v>
+        <v>1122.016392241183</v>
       </c>
       <c r="E5" t="n">
-        <v>880.5299933276337</v>
+        <v>736.2281396429387</v>
       </c>
       <c r="F5" t="n">
-        <v>469.5440885380262</v>
+        <v>729.2826388937352</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X5" t="n">
-        <v>1993.54646147304</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y5" t="n">
-        <v>1993.54646147304</v>
+        <v>1490.978909181595</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4661,28 +4661,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>699.731258496553</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>699.731258496553</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>699.731258496553</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>718.5714380630109</v>
+        <v>699.731258496553</v>
       </c>
       <c r="R7" t="n">
-        <v>570.4247794971948</v>
+        <v>699.731258496553</v>
       </c>
       <c r="S7" t="n">
-        <v>570.4247794971948</v>
+        <v>699.731258496553</v>
       </c>
       <c r="T7" t="n">
-        <v>343.1165921657965</v>
+        <v>699.731258496553</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>699.731258496553</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>699.731258496553</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>699.731258496553</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>699.731258496553</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>699.731258496553</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2465.942913862885</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C8" t="n">
-        <v>2096.980396922474</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>1738.714698315723</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>1352.926445717479</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>941.9405409278713</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4801,22 +4801,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862885</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862885</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862885</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862885</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.942913862885</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="Y8" t="n">
-        <v>2465.942913862885</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.0636002298164</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>348.1274173019095</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>198.0107778895738</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2134.774920425096</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>1765.812403484685</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1407.546704877934</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1021.75845227969</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>610.7725474900824</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>3328.574857095564</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>3328.574857095564</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3247.609174020412</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>2894.840518750298</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>2521.374760489218</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2521.374760489218</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914995</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>192.6510469835159</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>522.0794512893252</v>
       </c>
       <c r="L12" t="n">
-        <v>452.5377573864724</v>
+        <v>1026.440991155443</v>
       </c>
       <c r="M12" t="n">
-        <v>772.8730769161741</v>
+        <v>1346.776310685145</v>
       </c>
       <c r="N12" t="n">
-        <v>1138.699705022018</v>
+        <v>1691.296966322763</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R12" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S12" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>484.0375086983735</v>
+        <v>240.6726419207952</v>
       </c>
       <c r="C13" t="n">
-        <v>315.1013257704666</v>
+        <v>240.6726419207952</v>
       </c>
       <c r="D13" t="n">
-        <v>315.1013257704666</v>
+        <v>240.6726419207952</v>
       </c>
       <c r="E13" t="n">
-        <v>167.1882321880735</v>
+        <v>220.8817426245309</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>359.872719623048</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>565.1423203422855</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783894</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>945.0605805669879</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>784.7743001636427</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>530.0898119577558</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286132</v>
+        <v>240.6726419207952</v>
       </c>
       <c r="X13" t="n">
-        <v>665.6859735286132</v>
+        <v>240.6726419207952</v>
       </c>
       <c r="Y13" t="n">
-        <v>665.6859735286132</v>
+        <v>240.6726419207952</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>1865.553283416327</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>1496.590766475915</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1138.325067869165</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>752.5368152709202</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>341.5509104813127</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>262.6316941403564</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>666.0988071604011</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3368.526868987454</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3015.75821371734</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>2642.29245545626</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2252.153123480448</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914995</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>403.4201994324299</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>689.3920635516088</v>
       </c>
       <c r="M15" t="n">
-        <v>2056.693778606511</v>
+        <v>1009.727383081311</v>
       </c>
       <c r="N15" t="n">
-        <v>2056.693778606511</v>
+        <v>1682.933075334092</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>2232.369084086814</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R15" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S15" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>412.2823606383756</v>
+        <v>198.5034697522943</v>
       </c>
       <c r="C16" t="n">
-        <v>412.2823606383756</v>
+        <v>198.5034697522943</v>
       </c>
       <c r="D16" t="n">
-        <v>412.2823606383756</v>
+        <v>198.5034697522943</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>198.5034697522943</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>198.5034697522943</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>198.5034697522943</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>198.5034697522943</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>359.872719623048</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>565.1423203422855</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783894</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>945.0605805669879</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>866.4861918383683</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>866.4861918383683</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>577.334015416048</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>577.334015416048</v>
       </c>
       <c r="W16" t="n">
-        <v>954.8146123150548</v>
+        <v>577.334015416048</v>
       </c>
       <c r="X16" t="n">
-        <v>726.8250614170374</v>
+        <v>577.334015416048</v>
       </c>
       <c r="Y16" t="n">
-        <v>506.0324822735073</v>
+        <v>356.5414362725179</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L18" t="n">
-        <v>1288.32563221405</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M18" t="n">
-        <v>2056.693778606511</v>
+        <v>865.5852378527472</v>
       </c>
       <c r="N18" t="n">
-        <v>2623.573505376138</v>
+        <v>1669.996816116898</v>
       </c>
       <c r="O18" t="n">
-        <v>2623.573505376138</v>
+        <v>2339.460577419557</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W19" t="n">
-        <v>731.3177283550796</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X19" t="n">
-        <v>503.3281774570622</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y19" t="n">
-        <v>282.5355983135321</v>
+        <v>244.9733843006353</v>
       </c>
     </row>
     <row r="20">
@@ -5731,25 +5731,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823786</v>
@@ -5761,7 +5761,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5770,31 +5770,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5819,31 +5819,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.325632214049</v>
+        <v>802.0403666355641</v>
       </c>
       <c r="M21" t="n">
-        <v>2056.693778606511</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N21" t="n">
-        <v>2623.573505376138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028583</v>
+        <v>237.776412546148</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028583</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028583</v>
+        <v>237.776412546148</v>
       </c>
     </row>
     <row r="23">
@@ -5971,43 +5971,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6071,16 +6071,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L24" t="n">
-        <v>1122.004430061687</v>
+        <v>802.0403666355641</v>
       </c>
       <c r="M24" t="n">
-        <v>1890.372576454149</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N24" t="n">
-        <v>2623.573505376138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O24" t="n">
         <v>2623.573505376138</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>100.5986022327736</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>100.5986022327736</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>100.5986022327736</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>100.5986022327736</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>282.2470670630133</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6250,25 +6250,25 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="M27" t="n">
-        <v>2056.693778606511</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N27" t="n">
-        <v>2623.573505376138</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O27" t="n">
-        <v>2623.573505376138</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>879.2482765610114</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="C28" t="n">
-        <v>710.3120936331045</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207687</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1350.313911428212</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1350.313911428212</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V28" t="n">
-        <v>1350.313911428212</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W28" t="n">
-        <v>1060.896741391251</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X28" t="n">
-        <v>1060.896741391251</v>
+        <v>592.5368061590563</v>
       </c>
       <c r="Y28" t="n">
-        <v>1060.896741391251</v>
+        <v>540.5167870809138</v>
       </c>
     </row>
     <row r="29">
@@ -6442,70 +6442,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M30" t="n">
-        <v>334.2881267578673</v>
+        <v>2030.299435654558</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>534.1020230870769</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>534.1020230870769</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>383.9853836747411</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>236.072290092348</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>754.894602230607</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>534.1020230870769</v>
       </c>
     </row>
     <row r="32">
@@ -6679,37 +6679,37 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6718,31 +6718,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K33" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L33" t="n">
-        <v>1122.004430061687</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="M33" t="n">
-        <v>1890.372576454149</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N33" t="n">
-        <v>2623.573505376138</v>
+        <v>1221.963989254138</v>
       </c>
       <c r="O33" t="n">
-        <v>2623.573505376138</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="35">
@@ -6928,19 +6928,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6961,7 +6961,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>1128.069692924718</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>1128.069692924718</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
-        <v>1128.069692924718</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011507</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952638</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,34 +7159,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1427.161122497905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1138.032483711463</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>883.3479955055759</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>593.9308254686154</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X40" t="n">
-        <v>593.9308254686154</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>593.9308254686154</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7408,19 +7408,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
         <v>3183.709822619127</v>
@@ -7429,31 +7429,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>1433.809122337732</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>1433.809122337732</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.5850465240057</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C43" t="n">
-        <v>696.5850465240057</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D43" t="n">
-        <v>560.1954542207687</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E43" t="n">
-        <v>412.2823606383756</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>696.5850465240057</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X43" t="n">
-        <v>696.5850465240057</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y43" t="n">
-        <v>696.5850465240057</v>
+        <v>1209.499100520942</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7651,7 +7651,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7666,7 +7666,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7727,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>323.6581146605669</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L45" t="n">
-        <v>323.6581146605669</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605669</v>
+        <v>334.2881267578673</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>710.3120936331045</v>
+        <v>896.5552164996849</v>
       </c>
       <c r="C46" t="n">
-        <v>710.3120936331045</v>
+        <v>727.619033571778</v>
       </c>
       <c r="D46" t="n">
-        <v>560.1954542207687</v>
+        <v>727.619033571778</v>
       </c>
       <c r="E46" t="n">
-        <v>412.2823606383756</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V46" t="n">
-        <v>1209.787631771461</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W46" t="n">
-        <v>920.3704617344999</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X46" t="n">
-        <v>920.3704617344999</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="Y46" t="n">
-        <v>710.3120936331045</v>
+        <v>1078.203681329925</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -9017,13 +9017,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9245,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9257,13 +9257,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9494,7 +9494,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -9731,7 +9731,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -9956,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9968,13 +9968,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10208,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10442,13 +10442,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10673,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -11147,16 +11147,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>289.0870542489701</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11378,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>198.5685309419536</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>381.5997261417975</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,10 +23314,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>247.596232225735</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>126.8409723432675</v>
       </c>
       <c r="F13" t="n">
-        <v>76.14961870242149</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>17.69584188176917</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>148.0333797447915</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>118.4960408938905</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>87.01935976315694</v>
+        <v>23.37439332691596</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>17.69584188176917</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>163.6134794958514</v>
+        <v>33.55325026999137</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.09309322362427</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>142.0733523581683</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>74.43122551999542</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>167.0848344647337</v>
       </c>
     </row>
     <row r="29">
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>7.954401377189697</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25083,13 +25083,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>117.1119469436233</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25560,10 +25560,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25602,7 +25602,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>150.5099644789915</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>112.2167382934144</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>13.58977663800772</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>93.58373027430892</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>10.62686893171332</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>918918.290383616</v>
+        <v>793678.7908793102</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>918918.2903836161</v>
+        <v>793678.7908793101</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>918918.2903836161</v>
+        <v>918918.290383616</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>918918.2903836161</v>
+        <v>918918.290383616</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>918918.2903836161</v>
+        <v>918918.2903836162</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>918918.2903836162</v>
+        <v>918918.2903836161</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>918918.2903836162</v>
+        <v>918918.290383616</v>
       </c>
     </row>
   </sheetData>
@@ -26319,40 +26319,40 @@
         <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>449683.4186983653</v>
+        <v>388396.0040473217</v>
       </c>
       <c r="F2" t="n">
-        <v>449683.4186983651</v>
+        <v>388396.0040473216</v>
       </c>
       <c r="G2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="H2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="I2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="J2" t="n">
         <v>449683.4186983651</v>
       </c>
       <c r="K2" t="n">
+        <v>449683.4186983649</v>
+      </c>
+      <c r="L2" t="n">
         <v>449683.4186983652</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>449683.4186983651</v>
-      </c>
-      <c r="M2" t="n">
-        <v>449683.4186983652</v>
       </c>
       <c r="N2" t="n">
         <v>449683.418698365</v>
       </c>
       <c r="O2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983649</v>
       </c>
       <c r="P2" t="n">
         <v>449683.4186983652</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>248146.7686188428</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>263762.8892659103</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>62453.05588965298</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>69864.88484991119</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26426,28 +26426,28 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>639.5264553066584</v>
+      </c>
+      <c r="F4" t="n">
+        <v>639.5264553066584</v>
+      </c>
+      <c r="G4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="H4" t="n">
-        <v>787.7936905758694</v>
-      </c>
       <c r="I4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758695</v>
@@ -26456,7 +26456,7 @@
         <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758695</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>69171.54328360136</v>
+      </c>
+      <c r="F5" t="n">
+        <v>69171.54328360136</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26530,40 +26530,40 @@
         <v>250180.8004279344</v>
       </c>
       <c r="E6" t="n">
-        <v>-169226.328677545</v>
+        <v>70074.23954337675</v>
       </c>
       <c r="F6" t="n">
-        <v>355933.707799351</v>
+        <v>318221.0081622195</v>
       </c>
       <c r="G6" t="n">
-        <v>355933.707799351</v>
+        <v>93047.95066719019</v>
       </c>
       <c r="H6" t="n">
-        <v>355933.7077993508</v>
+        <v>356810.8399331005</v>
       </c>
       <c r="I6" t="n">
-        <v>355933.7077993509</v>
+        <v>356810.8399331005</v>
       </c>
       <c r="J6" t="n">
-        <v>179510.488606758</v>
+        <v>180387.6207405076</v>
       </c>
       <c r="K6" t="n">
-        <v>355933.707799351</v>
+        <v>356810.8399331002</v>
       </c>
       <c r="L6" t="n">
-        <v>355933.707799351</v>
+        <v>356810.8399331005</v>
       </c>
       <c r="M6" t="n">
-        <v>221132.6925655138</v>
+        <v>294357.7840434475</v>
       </c>
       <c r="N6" t="n">
-        <v>355933.7077993508</v>
+        <v>356810.8399331004</v>
       </c>
       <c r="O6" t="n">
-        <v>355933.707799351</v>
+        <v>286945.9550831891</v>
       </c>
       <c r="P6" t="n">
-        <v>355933.707799351</v>
+        <v>356810.8399331006</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,13 +26746,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>593.4761003380636</v>
+      </c>
+      <c r="F3" t="n">
+        <v>593.4761003380636</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="F3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26776,10 +26776,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>215.732436120977</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>236.9063051160366</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>250.6101663282006</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>290.3162041708168</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>250.6101663282009</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>290.3162041708166</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>250.6101663282006</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>290.3162041708168</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>138.3990710555387</v>
+        <v>53.41731589614926</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,13 +27596,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>96.92615468724696</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>2.339074370309845</v>
+        <v>221.0519985273764</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.6607792729252</v>
+        <v>1.009001502131891</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>10.52067551358164</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>112.9202716085211</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>3.806844538051934</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,19 +31120,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653236</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31381,13 +31381,13 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>73.87984549392695</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034982</v>
@@ -31606,7 +31606,7 @@
         <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31621,7 +31621,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>35.71704454958058</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>24.43391804055152</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>91.97984867651539</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>376.5024309712522</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>425.710248335966</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>401.9861157822509</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.1908666855358595</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>43.9508244118283</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>21.5211843113392</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>62.22752284810343</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>243.7619099671568</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>79.25705355080784</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>23.71104985784621</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>5.145325813308304</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.0839824670289713</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>9.515075838206993</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>32.18391704784123</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490361</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>159.109969588995</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>167.7591540676923</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>151.2683017714134</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>89.6148911510476</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>48.12020970937806</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>4.572684707522783</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.05837469839390796</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>24.43391804055152</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>91.97984867651539</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>376.5024309712522</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>425.710248335966</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>401.9861157822509</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.1908666855358595</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>43.9508244118283</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>56.57450328366644</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>332.0050874900645</v>
       </c>
       <c r="O15" t="n">
-        <v>321.3397097835</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>243.7619099671568</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>79.25705355080784</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>23.71104985784621</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>5.145325813308304</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.0839824670289713</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>9.515075838206993</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>32.18391704784123</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490361</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>159.109969588995</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>167.7591540676923</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>151.2683017714134</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>89.6148911510476</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>48.12020970937806</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>4.572684707522783</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.05837469839390796</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,25 +32314,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>32.39888063626375</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -32341,10 +32341,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32551,19 +32551,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>353.0329386354462</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32791,16 +32791,16 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>353.0329386354462</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32970,7 +32970,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
         <v>76.06970478104648</v>
@@ -33025,28 +33025,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>224.6051223555648</v>
+        <v>380.4309478731437</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
@@ -33262,28 +33262,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>425.8974584957647</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
@@ -33502,25 +33502,25 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>340.8546090773502</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
@@ -33681,7 +33681,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S35" t="n">
         <v>76.06970478104648</v>
@@ -33736,31 +33736,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>225.9373985850584</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>141.3402618185954</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,16 +34219,16 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -34237,10 +34237,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -34459,7 +34459,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34471,13 +34471,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624596</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35269,7 +35269,7 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>558.3972305517154</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>638.0987989730412</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>633.6441091513592</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>552.6880856233096</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.8578301584802</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>332.755963945262</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M12" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>369.5218465715594</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>313.4935976803885</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>207.3430310295329</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>175.8534296854531</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>3.452847899353216</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>558.3972305517154</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>638.0987989730412</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>633.6441091513592</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>552.6880856233096</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>332.755963945262</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>288.8604688072514</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O15" t="n">
-        <v>572.6057846157851</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>207.3430310295329</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>175.8534296854531</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>3.452847899353216</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>216.8872418618707</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>585.3189041590311</v>
       </c>
       <c r="M21" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36439,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>585.3189041590311</v>
       </c>
       <c r="M24" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>572.6057846157851</v>
+        <v>728.431610133364</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197792</v>
+        <v>749.4684883237463</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>592.1206839096353</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>458.2233641086434</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>489.3409240788156</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37867,16 +37867,16 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>146.9530203269518</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>60.72709196759461</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>239.4656922197792</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
@@ -38119,7 +38119,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
